--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="159">
   <si>
     <t>Project</t>
   </si>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N8" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2218,9 +2218,7 @@
       <c r="AF11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AG11" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="AG11" s="5"/>
       <c r="AH11" s="5" t="s">
         <v>11</v>
       </c>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="19320" windowHeight="6336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="162">
   <si>
     <t>Project</t>
   </si>
@@ -470,9 +472,6 @@
     <t>UpdateVM_Scenario</t>
   </si>
   <si>
-    <t>UpdateVM_Dallas</t>
-  </si>
-  <si>
     <t>UpdateVM_Delete</t>
   </si>
   <si>
@@ -498,6 +497,18 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Update_Openstack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser</t>
+  </si>
+  <si>
+    <t>AddUser</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemovaUser</t>
   </si>
 </sst>
 </file>
@@ -1277,14 +1288,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -1397,7 +1409,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="5" t="s">
         <v>58</v>
@@ -1408,7 +1420,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1441,10 +1453,10 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -1545,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
@@ -1865,7 +1877,7 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1899,10 +1911,10 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH7" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="AH7" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -3365,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="5">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="H25" s="5">
         <v>78</v>
@@ -3406,17 +3418,17 @@
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AA25" s="6"/>
       <c r="AB25" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AE25" s="7"/>
       <c r="AF25" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
@@ -3586,7 +3598,7 @@
       <c r="AD28" s="6"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
@@ -4017,12 +4029,2103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="9" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -1289,7 +1289,7 @@
   <dimension ref="A1:AH33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>48</v>
@@ -1340,7 +1340,7 @@
         <v>48</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>48</v>
@@ -1370,7 +1370,7 @@
         <v>48</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>48</v>
@@ -1400,7 +1400,7 @@
         <v>48</v>
       </c>
       <c r="AD1" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="AE1" s="5" t="s">
         <v>48</v>
@@ -1412,7 +1412,7 @@
         <v>48</v>
       </c>
       <c r="AH1" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="163">
   <si>
     <t>Project</t>
   </si>
@@ -508,7 +508,10 @@
     <t>AddUser</t>
   </si>
   <si>
-    <t>UpdateVM_RemovaUser</t>
+    <t>UpdateVM_RemoveUser</t>
+  </si>
+  <si>
+    <t>RemoveUser</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4031,8 +4034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4059,7 +4062,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>48</v>
@@ -4083,7 +4086,7 @@
         <v>48</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>48</v>
@@ -4107,7 +4110,7 @@
         <v>48</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>48</v>
@@ -5053,7 +5056,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:A10"/>
+      <selection activeCell="AF10" sqref="B10:AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5967,13 +5970,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -6047,7 +6052,7 @@
         <v>48</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>48</v>
@@ -6081,7 +6086,100 @@
       <c r="A2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6089,41 +6187,707 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1510" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="160">
   <si>
     <t>Project</t>
   </si>
@@ -888,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +913,7 @@
     <col min="30" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1010,14 +1010,8 @@
       <c r="AF1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -1054,14 +1048,8 @@
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,14 +1146,8 @@
       <c r="AF3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>147</v>
-      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,14 +1244,8 @@
       <c r="AF4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1366,14 +1342,8 @@
       <c r="AF5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AG5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1470,14 +1440,8 @@
       <c r="AF6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -1526,14 +1490,8 @@
       <c r="AF7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>143</v>
-      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -1582,14 +1540,8 @@
       <c r="AF8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1686,14 +1638,8 @@
       <c r="AF9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AG9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1790,12 +1736,8 @@
       <c r="AF10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1892,10 +1834,8 @@
       <c r="AF11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1992,10 +1932,8 @@
       <c r="AF12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2074,10 +2012,8 @@
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2156,10 +2092,8 @@
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2238,10 +2172,8 @@
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,10 +2252,8 @@
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,10 +2332,8 @@
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2484,10 +2412,8 @@
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2584,10 +2510,8 @@
       <c r="AF19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2684,10 +2608,8 @@
       <c r="AF20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2762,10 +2684,8 @@
         <v>6423</v>
       </c>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -2856,10 +2776,8 @@
       <c r="AF22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -2920,10 +2838,8 @@
       </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2990,10 +2906,8 @@
       <c r="AF24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3056,10 +2970,8 @@
       <c r="AF25" s="3">
         <v>78</v>
       </c>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3108,10 +3020,8 @@
       <c r="AF26" s="3">
         <v>96</v>
       </c>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3160,10 +3070,8 @@
       <c r="AF27" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -3260,10 +3168,8 @@
       <c r="AF28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -3356,10 +3262,8 @@
       <c r="AF29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3452,10 +3356,8 @@
       <c r="AF30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -3520,10 +3422,8 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -3578,8 +3478,6 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3591,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3646,7 +3544,7 @@
         <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>48</v>
@@ -3667,7 +3565,7 @@
         <v>48</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="160">
   <si>
     <t>Project</t>
   </si>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -918,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>48</v>
@@ -942,7 +942,7 @@
         <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>48</v>
@@ -972,7 +972,7 @@
         <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>48</v>
@@ -1002,7 +1002,7 @@
         <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>48</v>
@@ -3489,8 +3489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3517,91 +3517,91 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>48</v>
@@ -4430,7 +4430,9 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4446,8 +4448,12 @@
       <c r="G11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
@@ -4460,12 +4466,24 @@
       <c r="M11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="T11" s="3" t="s">
         <v>60</v>
       </c>
@@ -4478,8 +4496,12 @@
       <c r="W11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="X11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="Z11" s="3" t="s">
         <v>65</v>
       </c>
@@ -4498,11 +4520,14 @@
       <c r="AE11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AF11" s="3"/>
+      <c r="AF11" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AG11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4511,7 +4536,7 @@
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF10" sqref="B10:AF10"/>
+      <selection activeCell="B10" sqref="B10:AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="224">
   <si>
     <t>Project</t>
   </si>
@@ -462,9 +462,6 @@
     <t>UpdateVM_Scenario</t>
   </si>
   <si>
-    <t>UpdateVM_Delete</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -477,21 +474,9 @@
     <t>Server</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>UpdateVM_Dallas_Update_Openstack_DEV63</t>
-  </si>
-  <si>
     <t>UpdateVM_AddUser</t>
   </si>
   <si>
@@ -502,6 +487,213 @@
   </si>
   <si>
     <t>RemoveUser</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Prod30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Prod32</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>5423</t>
+  </si>
+  <si>
+    <t>6325</t>
+  </si>
+  <si>
+    <t>5789</t>
+  </si>
+  <si>
+    <t>6423</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>96</t>
   </si>
 </sst>
 </file>
@@ -550,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -573,17 +765,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,27 +1094,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
-    <col min="30" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
@@ -918,97 +1118,97 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -1018,36 +1218,96 @@
       <c r="B2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2669,21 +2929,21 @@
       <c r="Y21" s="5">
         <v>2147</v>
       </c>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3">
-        <v>5423</v>
-      </c>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3">
-        <v>6325</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>5789</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>6423</v>
-      </c>
-      <c r="AF21" s="3"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE21" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF21" s="4"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -2698,12 +2958,18 @@
       <c r="D22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="3" t="s">
         <v>139</v>
       </c>
@@ -2755,25 +3021,25 @@
       <c r="Y22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Z22" s="4" t="s">
+      <c r="Z22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA22" s="4" t="s">
+      <c r="AA22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB22" s="5" t="s">
+      <c r="AB22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AC22" s="4" t="s">
+      <c r="AC22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD22" s="4" t="s">
+      <c r="AD22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AE22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AF22" s="4" t="s">
+      <c r="AF22" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2827,17 +3093,17 @@
       <c r="Y23" s="5">
         <v>987</v>
       </c>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3">
-        <v>1478</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>1546</v>
-      </c>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -2853,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="3">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="H24" s="3">
         <v>78</v>
@@ -2887,24 +3153,24 @@
       <c r="U24" s="3">
         <v>95</v>
       </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3">
-        <v>51</v>
-      </c>
+      <c r="V24" s="3">
+        <v>76</v>
+      </c>
+      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="4" t="s">
-        <v>153</v>
+      <c r="Z24" s="3">
+        <v>87</v>
+      </c>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3">
+        <v>86</v>
+      </c>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.3">
@@ -2951,10 +3217,10 @@
       <c r="U25" s="3">
         <v>23</v>
       </c>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3">
-        <v>12</v>
-      </c>
+      <c r="V25" s="3">
+        <v>68</v>
+      </c>
+      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3">
@@ -3009,16 +3275,16 @@
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
       <c r="AB26" s="3">
         <v>64</v>
       </c>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="3">
-        <v>96</v>
+      <c r="AF26" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
@@ -3068,7 +3334,7 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
@@ -3487,37 +3753,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="9" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="32" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="39.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>48</v>
@@ -3541,7 +3797,7 @@
         <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>48</v>
@@ -3577,7 +3833,7 @@
         <v>48</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>48</v>
@@ -3601,7 +3857,7 @@
         <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>48</v>
@@ -3612,210 +3868,211 @@
       <c r="AG1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AH1" s="6"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>146</v>
+        <v>203</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -3916,7 +4173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4017,7 +4274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4118,108 +4375,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="X7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="X7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="AD7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -4272,7 +4529,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -4325,7 +4582,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4426,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4523,7 +4780,9 @@
       <c r="AF11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AG11" s="3"/>
+      <c r="AG11" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4660,97 +4919,97 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -4758,97 +5017,97 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -5567,100 +5826,100 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -5668,100 +5927,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,8 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -1094,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView topLeftCell="AB1" workbookViewId="0">
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
@@ -3755,8 +3755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,13 +3848,13 @@
         <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1124,91 +1124,91 @@
         <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -3755,7 +3755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView topLeftCell="AA1" workbookViewId="0">
       <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
@@ -3848,13 +3848,13 @@
         <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,23 +1121,23 @@
         <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>48</v>
@@ -1160,7 +1160,7 @@
         <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>48</v>
@@ -1172,7 +1172,7 @@
         <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>48</v>
@@ -1184,7 +1184,7 @@
         <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>48</v>
@@ -1196,7 +1196,7 @@
         <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="225">
   <si>
     <t>Project</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>96</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev84</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView tabSelected="1" topLeftCell="AC17" workbookViewId="0">
+      <selection activeCell="AF31" sqref="AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,109 +1112,112 @@
     <col min="18" max="23" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -1308,8 +1314,11 @@
       <c r="AF2" s="3" t="s">
         <v>185</v>
       </c>
+      <c r="AG2" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,8 +1415,11 @@
       <c r="AF3" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1516,11 @@
       <c r="AF4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="AG4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1602,8 +1617,11 @@
       <c r="AF5" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AG5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1718,11 @@
       <c r="AF6" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AG6" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -1750,8 +1771,11 @@
       <c r="AF7" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="AG7" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -1800,8 +1824,11 @@
       <c r="AF8" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="AG8" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1898,8 +1925,11 @@
       <c r="AF9" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="AG9" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1946,28 +1976,28 @@
         <v>63</v>
       </c>
       <c r="P10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="R10" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="U10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>64</v>
@@ -1996,8 +2026,11 @@
       <c r="AF10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG10" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2094,8 +2127,11 @@
       <c r="AF11" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AG11" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2192,8 +2228,11 @@
       <c r="AF12" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AG12" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2272,8 +2311,9 @@
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2352,8 +2392,9 @@
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2432,8 +2473,9 @@
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2512,8 +2554,9 @@
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2592,8 +2635,9 @@
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2672,8 +2716,9 @@
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2770,8 +2815,11 @@
       <c r="AF19" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="AG19" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2868,8 +2916,11 @@
       <c r="AF20" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="AG20" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2944,8 +2995,9 @@
         <v>220</v>
       </c>
       <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3042,8 +3094,11 @@
       <c r="AF22" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="AG22" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3104,8 +3159,9 @@
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3172,8 +3228,11 @@
       <c r="AF24" s="3">
         <v>63</v>
       </c>
+      <c r="AG24" s="3">
+        <v>63</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3236,8 +3295,11 @@
       <c r="AF25" s="3">
         <v>78</v>
       </c>
+      <c r="AG25" s="3">
+        <v>78</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3286,8 +3348,11 @@
       <c r="AF26" s="4" t="s">
         <v>223</v>
       </c>
+      <c r="AG26" s="4" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3336,8 +3401,11 @@
       <c r="AF27" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="AG27" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -3434,8 +3502,11 @@
       <c r="AF28" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="AG28" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3599,11 @@
       <c r="AF29" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="AG29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3622,8 +3696,11 @@
       <c r="AF30" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AG30" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -3688,8 +3765,9 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
+      <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -3744,6 +3822,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
+      <c r="AG32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesh\workspace\CNet_Global_Updated\Testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17448" windowHeight="7788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="AF1:AO25"/>
 </workbook>
 </file>
 
@@ -1097,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC17" workbookViewId="0">
-      <selection activeCell="AF31" sqref="AF31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1147,7 @@
         <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>48</v>
@@ -1214,7 +1210,7 @@
         <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -3834,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3852,100 +3848,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH1" s="6"/>
     </row>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesh\workspace\CNet_Global_Updated\Testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="AF1:AO25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="224">
   <si>
     <t>Project</t>
   </si>
@@ -462,9 +466,6 @@
   </si>
   <si>
     <t>TypeofDecommission</t>
-  </si>
-  <si>
-    <t>Cluster</t>
   </si>
   <si>
     <t>Server</t>
@@ -1093,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -1218,100 +1219,100 @@
         <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="AG2" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -2978,17 +2979,17 @@
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD21" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AE21" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -3148,10 +3149,10 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD23" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
@@ -3342,10 +3343,10 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
@@ -3395,10 +3396,10 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -3830,8 +3831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3848,28 +3849,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>55</v>
@@ -3896,52 +3897,52 @@
         <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="6"/>
     </row>
@@ -3950,100 +3951,100 @@
         <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -4458,19 +4459,19 @@
         <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>148</v>
@@ -4482,13 +4483,13 @@
         <v>148</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>148</v>
@@ -4509,16 +4510,16 @@
         <v>148</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>148</v>
@@ -4527,19 +4528,19 @@
         <v>148</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>148</v>
@@ -4994,97 +4995,97 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -5092,97 +5093,97 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -5901,100 +5902,100 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -6002,100 +6003,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -3831,9 +3831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3897,52 +3895,52 @@
         <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AH1" s="6"/>
     </row>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -3831,7 +3831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3871,76 +3873,76 @@
         <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>55</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="6"/>
     </row>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
     <sheet name="Delete" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="AddUser" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="229">
   <si>
     <t>Project</t>
   </si>
@@ -468,6 +468,9 @@
     <t>TypeofDecommission</t>
   </si>
   <si>
+    <t>Cluster</t>
+  </si>
+  <si>
     <t>Server</t>
   </si>
   <si>
@@ -477,9 +480,6 @@
     <t>UpdateVM_AddUser</t>
   </si>
   <si>
-    <t>AddUser</t>
-  </si>
-  <si>
     <t>UpdateVM_RemoveUser</t>
   </si>
   <si>
@@ -693,7 +693,22 @@
     <t>96</t>
   </si>
   <si>
-    <t>UpdateVM_NewYork_VMWare_Dev84</t>
+    <t>PCICompliance</t>
+  </si>
+  <si>
+    <t>ServerAccountDetails</t>
+  </si>
+  <si>
+    <t>SampleTesting</t>
+  </si>
+  <si>
+    <t>Add Users</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Manessh NAMA</t>
   </si>
 </sst>
 </file>
@@ -742,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -765,29 +780,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1104,16 +1107,16 @@
     <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="28" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="33" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1210,11 +1213,8 @@
       <c r="AF1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -1311,11 +1311,8 @@
       <c r="AF2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>223</v>
-      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1412,11 +1409,8 @@
       <c r="AF3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1513,11 +1507,8 @@
       <c r="AF4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1614,11 +1605,8 @@
       <c r="AF5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AG5" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1715,11 +1703,8 @@
       <c r="AF6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AG6" s="3" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -1768,11 +1753,8 @@
       <c r="AF7" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="AG7" s="3" t="s">
-        <v>143</v>
-      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -1821,11 +1803,8 @@
       <c r="AF8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AG8" s="3" t="s">
-        <v>144</v>
-      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1922,11 +1901,8 @@
       <c r="AF9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AG9" s="3" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1973,28 +1949,28 @@
         <v>63</v>
       </c>
       <c r="P10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="R10" s="3" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>60</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>64</v>
@@ -2023,11 +1999,8 @@
       <c r="AF10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AG10" s="3" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2124,11 +2097,8 @@
       <c r="AF11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AG11" s="3" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2225,11 +2195,8 @@
       <c r="AF12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG12" s="3" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2308,9 +2275,8 @@
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2389,9 +2355,8 @@
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2470,9 +2435,8 @@
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2551,9 +2515,8 @@
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2632,9 +2595,8 @@
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2713,9 +2675,8 @@
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2812,11 +2773,8 @@
       <c r="AF19" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AG19" s="3" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -2913,11 +2871,8 @@
       <c r="AF20" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="AG20" s="3" t="s">
-        <v>137</v>
-      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -2992,9 +2947,8 @@
         <v>219</v>
       </c>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3091,11 +3045,8 @@
       <c r="AF22" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="AG22" s="3" t="s">
-        <v>139</v>
-      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3156,9 +3107,8 @@
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3225,11 +3175,8 @@
       <c r="AF24" s="3">
         <v>63</v>
       </c>
-      <c r="AG24" s="3">
-        <v>63</v>
-      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3292,11 +3239,8 @@
       <c r="AF25" s="3">
         <v>78</v>
       </c>
-      <c r="AG25" s="3">
-        <v>78</v>
-      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3345,11 +3289,8 @@
       <c r="AF26" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AG26" s="4" t="s">
-        <v>222</v>
-      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3396,13 +3337,10 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG27" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -3499,11 +3437,8 @@
       <c r="AF28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AG28" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -3596,11 +3531,8 @@
       <c r="AF29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AG29" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3693,11 +3625,8 @@
       <c r="AF30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AG30" s="3" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -3762,9 +3691,8 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="2"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -3819,7 +3747,6 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
-      <c r="AG32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3829,48 +3756,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+      <selection activeCell="AI1" sqref="AI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="17" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="18" max="25" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="32" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>48</v>
@@ -3888,7 +3814,7 @@
         <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>48</v>
@@ -3944,9 +3870,8 @@
       <c r="AG1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="6"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -4047,7 +3972,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4148,7 +4073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4350,7 +4275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4451,7 +4376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>147</v>
       </c>
@@ -4459,19 +4384,19 @@
         <v>148</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>148</v>
@@ -4480,16 +4405,16 @@
         <v>148</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>148</v>
@@ -4510,16 +4435,16 @@
         <v>148</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X7" s="3" t="s">
         <v>148</v>
@@ -4528,19 +4453,19 @@
         <v>148</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>148</v>
@@ -4552,7 +4477,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -4605,7 +4530,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>142</v>
       </c>
@@ -4658,7 +4583,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -4759,7 +4684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -4868,27 +4793,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:AF10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="32" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4897,7 +4821,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>48</v>
@@ -4933,7 +4857,7 @@
         <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>48</v>
@@ -4960,7 +4884,7 @@
         <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>48</v>
@@ -4995,97 +4919,97 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -5093,97 +5017,97 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
@@ -5776,8 +5700,303 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5791,7 +6010,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="260">
   <si>
     <t>Project</t>
   </si>
@@ -477,9 +477,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>UpdateVM_AddUser</t>
-  </si>
-  <si>
     <t>UpdateVM_RemoveUser</t>
   </si>
   <si>
@@ -708,7 +705,103 @@
     <t>User</t>
   </si>
   <si>
-    <t>Manessh NAMA</t>
+    <t>Maneesh Nama</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_PED32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV63</t>
   </si>
 </sst>
 </file>
@@ -1219,97 +1312,97 @@
         <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -2934,17 +3027,17 @@
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD21" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AE21" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="AF21" s="4"/>
     </row>
@@ -3100,10 +3193,10 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AD23" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
@@ -3287,7 +3380,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
@@ -3758,9 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3775,28 +3866,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>48</v>
@@ -3876,100 +3967,100 @@
         <v>145</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -4793,324 +4884,326 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="38" bestFit="1" customWidth="1"/>
+    <col min="26" max="33" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>151</v>
+        <v>234</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
+        <v>235</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>236</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>239</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>151</v>
+        <v>253</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>151</v>
+        <v>259</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5207,8 +5300,11 @@
       <c r="AF4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="AG4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -5305,8 +5401,11 @@
       <c r="AF5" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AG5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -5403,8 +5502,11 @@
       <c r="AF6" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AG6" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>141</v>
       </c>
@@ -5453,8 +5555,11 @@
       <c r="AF7" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="AG7" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>142</v>
       </c>
@@ -5503,8 +5608,11 @@
       <c r="AF8" s="3" t="s">
         <v>144</v>
       </c>
+      <c r="AG8" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -5601,8 +5709,11 @@
       <c r="AF9" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="AG9" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -5699,206 +5810,215 @@
       <c r="AF10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG10" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>228</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -5991,6 +6111,9 @@
         <v>10</v>
       </c>
       <c r="AF13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6121,100 +6244,100 @@
         <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -6222,100 +6345,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -4886,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4920,7 +4920,7 @@
         <v>55</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>55</v>
@@ -4929,76 +4929,76 @@
         <v>55</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -4886,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4905,52 +4905,52 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -4886,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4929,52 +4929,52 @@
         <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>55</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -4886,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4920,85 +4920,85 @@
         <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -4886,8 +4886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4977,28 +4977,28 @@
         <v>48</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
     <sheet name="Delete" sheetId="3" r:id="rId2"/>
     <sheet name="AddUser" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="RemoveUser" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="291">
   <si>
     <t>Project</t>
   </si>
@@ -189,619 +189,712 @@
     <t>ToIP</t>
   </si>
   <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>VMWare</t>
+  </si>
+  <si>
+    <t>Azure-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>VMWare-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-91</t>
+  </si>
+  <si>
+    <t>DEV-LNX-GRAPAHANA-13</t>
+  </si>
+  <si>
+    <t>DEV-WIN-TOMCAT-83</t>
+  </si>
+  <si>
+    <t>DEV-WIN-TOMCAT-84</t>
+  </si>
+  <si>
+    <t>PRD-LNX-NGNX-30</t>
+  </si>
+  <si>
+    <t>PRD-WIN-NGNX-32</t>
+  </si>
+  <si>
+    <t>t2.nano</t>
+  </si>
+  <si>
+    <t>t2.small</t>
+  </si>
+  <si>
+    <t>t2.large</t>
+  </si>
+  <si>
+    <t>t2.xlarge</t>
+  </si>
+  <si>
+    <t>t2.2xlarge</t>
+  </si>
+  <si>
+    <t>m1.large</t>
+  </si>
+  <si>
+    <t>m1.small</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>EMC</t>
+  </si>
+  <si>
+    <t>StorageName2</t>
+  </si>
+  <si>
+    <t>StorageName3</t>
+  </si>
+  <si>
+    <t>StorageName4</t>
+  </si>
+  <si>
+    <t>StorageName5</t>
+  </si>
+  <si>
+    <t>StorageName6</t>
+  </si>
+  <si>
+    <t>StorageName7</t>
+  </si>
+  <si>
+    <t>StorageName8</t>
+  </si>
+  <si>
+    <t>StorageName9</t>
+  </si>
+  <si>
+    <t>StorageName10</t>
+  </si>
+  <si>
+    <t>StorageName11</t>
+  </si>
+  <si>
+    <t>StorageName12</t>
+  </si>
+  <si>
+    <t>StorageName13</t>
+  </si>
+  <si>
+    <t>StorageName14</t>
+  </si>
+  <si>
+    <t>StorageName15</t>
+  </si>
+  <si>
+    <t>StorageName16</t>
+  </si>
+  <si>
+    <t>StorageName17</t>
+  </si>
+  <si>
+    <t>StorageName18</t>
+  </si>
+  <si>
+    <t>StorageName19</t>
+  </si>
+  <si>
+    <t>StorageName20</t>
+  </si>
+  <si>
+    <t>StorageName21</t>
+  </si>
+  <si>
+    <t>AggregateName2</t>
+  </si>
+  <si>
+    <t>AggregateName3</t>
+  </si>
+  <si>
+    <t>AggregateName4</t>
+  </si>
+  <si>
+    <t>AggregateName5</t>
+  </si>
+  <si>
+    <t>AggregateName6</t>
+  </si>
+  <si>
+    <t>AggregateName7</t>
+  </si>
+  <si>
+    <t>AggregateName9</t>
+  </si>
+  <si>
+    <t>AggregateName10</t>
+  </si>
+  <si>
+    <t>AggregateName11</t>
+  </si>
+  <si>
+    <t>AggregateName12</t>
+  </si>
+  <si>
+    <t>AggregateName13</t>
+  </si>
+  <si>
+    <t>AggregateName14</t>
+  </si>
+  <si>
+    <t>AggregateName15</t>
+  </si>
+  <si>
+    <t>AggregateName16</t>
+  </si>
+  <si>
+    <t>AggregateName17</t>
+  </si>
+  <si>
+    <t>AggregateName18</t>
+  </si>
+  <si>
+    <t>AggregateName19</t>
+  </si>
+  <si>
+    <t>AggregateName20</t>
+  </si>
+  <si>
+    <t>AggregateName21</t>
+  </si>
+  <si>
+    <t>Vserver2</t>
+  </si>
+  <si>
+    <t>Vserver3</t>
+  </si>
+  <si>
+    <t>Vserver4</t>
+  </si>
+  <si>
+    <t>Vserver5</t>
+  </si>
+  <si>
+    <t>Vserver6</t>
+  </si>
+  <si>
+    <t>Vserver7</t>
+  </si>
+  <si>
+    <t>Vserver8</t>
+  </si>
+  <si>
+    <t>Vserver9</t>
+  </si>
+  <si>
+    <t>Vserver10</t>
+  </si>
+  <si>
+    <t>Vserver11</t>
+  </si>
+  <si>
+    <t>Vserver12</t>
+  </si>
+  <si>
+    <t>Vserver13</t>
+  </si>
+  <si>
+    <t>Vserver14</t>
+  </si>
+  <si>
+    <t>Vserver15</t>
+  </si>
+  <si>
+    <t>Vserver16</t>
+  </si>
+  <si>
+    <t>Vserver17</t>
+  </si>
+  <si>
+    <t>Vserver18</t>
+  </si>
+  <si>
+    <t>Vserver19</t>
+  </si>
+  <si>
+    <t>Vserver20</t>
+  </si>
+  <si>
+    <t>Vserver21</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>ICMP</t>
+  </si>
+  <si>
+    <t>Port Range</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>IP Range</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>VcenterHost</t>
+  </si>
+  <si>
+    <t>ESXIHOST</t>
+  </si>
+  <si>
+    <t>192.168.20.85</t>
+  </si>
+  <si>
+    <t>192.168.10.227</t>
+  </si>
+  <si>
+    <t>UpdateVM_Scenario</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>TypeofDecommission</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Prod30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_OpenStack_Prod32</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Dallas_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_AWS_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_VMWare_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_NewYork_Delete_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>5423</t>
+  </si>
+  <si>
+    <t>6325</t>
+  </si>
+  <si>
+    <t>5789</t>
+  </si>
+  <si>
+    <t>6423</t>
+  </si>
+  <si>
+    <t>1478</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>PCICompliance</t>
+  </si>
+  <si>
+    <t>ServerAccountDetails</t>
+  </si>
+  <si>
+    <t>SampleTesting</t>
+  </si>
+  <si>
+    <t>Add Users</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Maneesh Nama</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_Dallas_Azure_PED32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_AddUser_NewYork_VMWare_DEV63</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>VMWare</t>
-  </si>
-  <si>
-    <t>Azure-AIMS-CNET-01</t>
-  </si>
-  <si>
-    <t>VMWare-AIMS-CNET-01</t>
-  </si>
-  <si>
-    <t>DEV-LNX-APACHE-91</t>
-  </si>
-  <si>
-    <t>DEV-LNX-GRAPAHANA-13</t>
-  </si>
-  <si>
-    <t>DEV-WIN-TOMCAT-83</t>
-  </si>
-  <si>
-    <t>DEV-WIN-TOMCAT-84</t>
-  </si>
-  <si>
-    <t>PRD-LNX-NGNX-30</t>
-  </si>
-  <si>
-    <t>PRD-WIN-NGNX-32</t>
-  </si>
-  <si>
-    <t>t2.nano</t>
-  </si>
-  <si>
-    <t>t2.small</t>
-  </si>
-  <si>
-    <t>t2.large</t>
-  </si>
-  <si>
-    <t>t2.xlarge</t>
-  </si>
-  <si>
-    <t>t2.2xlarge</t>
-  </si>
-  <si>
-    <t>m1.large</t>
-  </si>
-  <si>
-    <t>m1.small</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>EMC</t>
-  </si>
-  <si>
-    <t>StorageName2</t>
-  </si>
-  <si>
-    <t>StorageName3</t>
-  </si>
-  <si>
-    <t>StorageName4</t>
-  </si>
-  <si>
-    <t>StorageName5</t>
-  </si>
-  <si>
-    <t>StorageName6</t>
-  </si>
-  <si>
-    <t>StorageName7</t>
-  </si>
-  <si>
-    <t>StorageName8</t>
-  </si>
-  <si>
-    <t>StorageName9</t>
-  </si>
-  <si>
-    <t>StorageName10</t>
-  </si>
-  <si>
-    <t>StorageName11</t>
-  </si>
-  <si>
-    <t>StorageName12</t>
-  </si>
-  <si>
-    <t>StorageName13</t>
-  </si>
-  <si>
-    <t>StorageName14</t>
-  </si>
-  <si>
-    <t>StorageName15</t>
-  </si>
-  <si>
-    <t>StorageName16</t>
-  </si>
-  <si>
-    <t>StorageName17</t>
-  </si>
-  <si>
-    <t>StorageName18</t>
-  </si>
-  <si>
-    <t>StorageName19</t>
-  </si>
-  <si>
-    <t>StorageName20</t>
-  </si>
-  <si>
-    <t>StorageName21</t>
-  </si>
-  <si>
-    <t>AggregateName2</t>
-  </si>
-  <si>
-    <t>AggregateName3</t>
-  </si>
-  <si>
-    <t>AggregateName4</t>
-  </si>
-  <si>
-    <t>AggregateName5</t>
-  </si>
-  <si>
-    <t>AggregateName6</t>
-  </si>
-  <si>
-    <t>AggregateName7</t>
-  </si>
-  <si>
-    <t>AggregateName9</t>
-  </si>
-  <si>
-    <t>AggregateName10</t>
-  </si>
-  <si>
-    <t>AggregateName11</t>
-  </si>
-  <si>
-    <t>AggregateName12</t>
-  </si>
-  <si>
-    <t>AggregateName13</t>
-  </si>
-  <si>
-    <t>AggregateName14</t>
-  </si>
-  <si>
-    <t>AggregateName15</t>
-  </si>
-  <si>
-    <t>AggregateName16</t>
-  </si>
-  <si>
-    <t>AggregateName17</t>
-  </si>
-  <si>
-    <t>AggregateName18</t>
-  </si>
-  <si>
-    <t>AggregateName19</t>
-  </si>
-  <si>
-    <t>AggregateName20</t>
-  </si>
-  <si>
-    <t>AggregateName21</t>
-  </si>
-  <si>
-    <t>Vserver2</t>
-  </si>
-  <si>
-    <t>Vserver3</t>
-  </si>
-  <si>
-    <t>Vserver4</t>
-  </si>
-  <si>
-    <t>Vserver5</t>
-  </si>
-  <si>
-    <t>Vserver6</t>
-  </si>
-  <si>
-    <t>Vserver7</t>
-  </si>
-  <si>
-    <t>Vserver8</t>
-  </si>
-  <si>
-    <t>Vserver9</t>
-  </si>
-  <si>
-    <t>Vserver10</t>
-  </si>
-  <si>
-    <t>Vserver11</t>
-  </si>
-  <si>
-    <t>Vserver12</t>
-  </si>
-  <si>
-    <t>Vserver13</t>
-  </si>
-  <si>
-    <t>Vserver14</t>
-  </si>
-  <si>
-    <t>Vserver15</t>
-  </si>
-  <si>
-    <t>Vserver16</t>
-  </si>
-  <si>
-    <t>Vserver17</t>
-  </si>
-  <si>
-    <t>Vserver18</t>
-  </si>
-  <si>
-    <t>Vserver19</t>
-  </si>
-  <si>
-    <t>Vserver20</t>
-  </si>
-  <si>
-    <t>Vserver21</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>ICMP</t>
-  </si>
-  <si>
-    <t>Port Range</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>IP Range</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>VcenterHost</t>
-  </si>
-  <si>
-    <t>ESXIHOST</t>
-  </si>
-  <si>
-    <t>192.168.20.85</t>
-  </si>
-  <si>
-    <t>192.168.10.227</t>
-  </si>
-  <si>
-    <t>UpdateVM_Scenario</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>TypeofDecommission</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>UpdateVM_RemoveUser</t>
-  </si>
-  <si>
-    <t>RemoveUser</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev84</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Prod30</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Prod32</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev84</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV84</t>
-  </si>
-  <si>
-    <t>5423</t>
-  </si>
-  <si>
-    <t>6325</t>
-  </si>
-  <si>
-    <t>5789</t>
-  </si>
-  <si>
-    <t>6423</t>
-  </si>
-  <si>
-    <t>1478</t>
-  </si>
-  <si>
-    <t>1546</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>PCICompliance</t>
-  </si>
-  <si>
-    <t>ServerAccountDetails</t>
-  </si>
-  <si>
-    <t>SampleTesting</t>
-  </si>
-  <si>
-    <t>Add Users</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Maneesh Nama</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_OpenStack_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_Dallas_Azure_PED32</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_AWS_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_AddUser_NewYork_VMWare_DEV63</t>
+    <t>Remove Users</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_NewYork_AWS_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_Dev63</t>
+  </si>
+  <si>
+    <t>`UpdateVM_RemoveUser_Dallas_Azure_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV84</t>
   </si>
 </sst>
 </file>
@@ -1309,100 +1402,100 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.3">
@@ -1728,28 +1821,28 @@
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>20</v>
@@ -1776,30 +1869,30 @@
         <v>20</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1826,30 +1919,30 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1876,25 +1969,25 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.3">
@@ -1926,28 +2019,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>21</v>
@@ -1974,25 +2067,25 @@
         <v>21</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.3">
@@ -2006,22 +2099,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -2030,22 +2123,22 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>6</v>
@@ -2054,37 +2147,37 @@
         <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>11</v>
@@ -2101,10 +2194,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -2113,82 +2206,82 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="R11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="V11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AA11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AD11" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="AE11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF11" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.3">
@@ -2223,19 +2316,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>10</v>
@@ -2250,13 +2343,13 @@
         <v>10</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>10</v>
@@ -2283,10 +2376,10 @@
         <v>10</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.3">
@@ -2297,13 +2390,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>34</v>
@@ -2312,10 +2405,10 @@
         <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>29</v>
@@ -2331,7 +2424,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>34</v>
@@ -2343,7 +2436,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>34</v>
@@ -2355,7 +2448,7 @@
         <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB13" s="3" t="s">
         <v>34</v>
@@ -2380,71 +2473,71 @@
         <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -2460,71 +2553,71 @@
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -2540,71 +2633,71 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -2718,11 +2811,11 @@
         <v>32</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2783,16 +2876,16 @@
         <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>38</v>
@@ -2804,10 +2897,10 @@
         <v>38</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>38</v>
@@ -2816,13 +2909,13 @@
         <v>33</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>33</v>
@@ -2831,13 +2924,13 @@
         <v>38</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V19" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>33</v>
@@ -2861,10 +2954,10 @@
         <v>33</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
@@ -2878,13 +2971,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>25</v>
@@ -2893,7 +2986,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>25</v>
@@ -2902,13 +2995,13 @@
         <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>25</v>
@@ -2923,16 +3016,16 @@
         <v>25</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>25</v>
@@ -2944,13 +3037,13 @@
         <v>25</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>25</v>
@@ -2962,7 +3055,7 @@
         <v>25</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.3">
@@ -2973,7 +3066,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4">
@@ -3027,17 +3120,17 @@
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF21" s="4"/>
     </row>
@@ -3052,7 +3145,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>39</v>
@@ -3067,7 +3160,7 @@
         <v>39</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>28</v>
@@ -3076,7 +3169,7 @@
         <v>39</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>28</v>
@@ -3100,10 +3193,10 @@
         <v>39</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>28</v>
@@ -3124,7 +3217,7 @@
         <v>39</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>28</v>
@@ -3136,7 +3229,7 @@
         <v>39</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.3">
@@ -3147,7 +3240,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4">
@@ -3193,10 +3286,10 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
@@ -3380,7 +3473,7 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
@@ -3430,7 +3523,7 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.3">
@@ -3477,7 +3570,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>10</v>
@@ -3507,7 +3600,7 @@
         <v>10</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>10</v>
@@ -3545,10 +3638,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -3557,13 +3650,13 @@
         <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -3572,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
@@ -3597,10 +3690,10 @@
         <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3" t="s">
@@ -3642,16 +3735,16 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>10</v>
@@ -3663,14 +3756,14 @@
         <v>10</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>10</v>
@@ -3685,23 +3778,23 @@
         <v>10</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="V30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>10</v>
@@ -3710,13 +3803,13 @@
         <v>10</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
@@ -3730,7 +3823,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
@@ -3748,20 +3841,20 @@
         <v>10</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>10</v>
@@ -3964,103 +4057,103 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -4068,100 +4161,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -4371,28 +4464,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>20</v>
@@ -4419,28 +4512,28 @@
         <v>20</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>4</v>
@@ -4469,132 +4562,132 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="X7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="X7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="AD7" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -4623,31 +4716,31 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4679,28 +4772,28 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>21</v>
@@ -4727,28 +4820,28 @@
         <v>21</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>5</v>
@@ -4786,22 +4879,22 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
@@ -4810,22 +4903,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>6</v>
@@ -4834,37 +4927,37 @@
         <v>11</v>
       </c>
       <c r="T11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="W11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AC11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE11" s="3" t="s">
         <v>11</v>
@@ -4873,7 +4966,7 @@
         <v>6</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4886,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4995,7 +5088,7 @@
         <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
         <v>48</v>
@@ -5003,103 +5096,103 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -5107,100 +5200,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -5434,28 +5527,28 @@
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>20</v>
@@ -5482,33 +5575,33 @@
         <v>20</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5535,33 +5628,33 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5588,28 +5681,28 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -5641,28 +5734,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>21</v>
@@ -5689,28 +5782,28 @@
         <v>21</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -5724,22 +5817,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -5748,22 +5841,22 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>6</v>
@@ -5772,37 +5865,37 @@
         <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>11</v>
@@ -5811,214 +5904,214 @@
         <v>6</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -6125,17 +6218,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="44" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -6143,7 +6243,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>48</v>
@@ -6209,7 +6309,7 @@
         <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>48</v>
@@ -6241,103 +6341,103 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>262</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>151</v>
+        <v>267</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>151</v>
+        <v>269</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>151</v>
+        <v>281</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>151</v>
+        <v>282</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>151</v>
+        <v>284</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -6345,100 +6445,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>152</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -6648,28 +6748,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>20</v>
@@ -6696,28 +6796,28 @@
         <v>20</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>4</v>
@@ -6746,30 +6846,32 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>142</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -6797,30 +6899,32 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -6851,28 +6955,28 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>21</v>
@@ -6899,28 +7003,28 @@
         <v>21</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>5</v>
@@ -6958,22 +7062,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -6982,22 +7086,22 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>6</v>
@@ -7006,37 +7110,37 @@
         <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>11</v>
@@ -7044,7 +7148,312 @@
       <c r="AF10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AG10" s="3"/>
+      <c r="AG10" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6246,25 +6246,25 @@
         <v>257</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6243,52 +6243,52 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6267,52 +6267,52 @@
         <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>48</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6276,7 +6276,7 @@
         <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>48</v>
@@ -6291,22 +6291,22 @@
         <v>48</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>257</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -6220,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6309,34 +6309,34 @@
         <v>48</v>
       </c>
       <c r="X1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="292">
   <si>
     <t>Project</t>
   </si>
@@ -474,192 +474,6 @@
     <t>14</t>
   </si>
   <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Dev84</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Prod30</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_OpenStack_Prod32</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_Dev84</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_Dallas_Azure_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_AWS_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_VMWare_Dev63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_AWS_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_Azure_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM_NewYork_Delete_OpenStack_DEV84</t>
-  </si>
-  <si>
     <t>5423</t>
   </si>
   <si>
@@ -895,6 +709,195 @@
   </si>
   <si>
     <t>UpdateVM_RemoveUser_Dallas_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Prod30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_OpenStack_Prod32</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Update_Dallas_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_AWS_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_Dev83</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_Dev13</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_Dev91</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_Dev59</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_Dev63</t>
+  </si>
+  <si>
+    <t>UpdateVM__Update_NewYork_VMWare_Dev84</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_63</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM__Delete_Dallas_OpenStack_DEV84</t>
   </si>
 </sst>
 </file>
@@ -1281,33 +1284,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF32"/>
+  <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="32" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="35" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="33" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>48</v>
@@ -1352,7 +1354,7 @@
         <v>48</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>48</v>
@@ -1399,106 +1401,112 @@
       <c r="AF1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AG1" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>159</v>
+        <v>238</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>162</v>
+        <v>241</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>171</v>
+        <v>250</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>176</v>
+        <v>255</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>177</v>
+        <v>256</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>180</v>
+        <v>259</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1603,11 @@
       <c r="AF3" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="AG3" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,8 +1704,11 @@
       <c r="AF4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="AG4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1791,8 +1805,11 @@
       <c r="AF5" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="AG5" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1889,8 +1906,11 @@
       <c r="AF6" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AG6" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>140</v>
       </c>
@@ -1939,8 +1959,11 @@
       <c r="AF7" s="3" t="s">
         <v>142</v>
       </c>
+      <c r="AG7" s="3" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>141</v>
       </c>
@@ -1989,8 +2012,11 @@
       <c r="AF8" s="3" t="s">
         <v>143</v>
       </c>
+      <c r="AG8" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2087,8 +2113,11 @@
       <c r="AF9" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="AG9" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2185,8 +2214,11 @@
       <c r="AF10" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="AG10" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2283,8 +2315,11 @@
       <c r="AF11" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AG11" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2381,8 +2416,11 @@
       <c r="AF12" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="AG12" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2461,8 +2499,9 @@
       </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -2541,8 +2580,9 @@
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2621,8 +2661,9 @@
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2701,8 +2742,9 @@
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2781,8 +2823,9 @@
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -2861,8 +2904,9 @@
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -2959,8 +3003,11 @@
       <c r="AF19" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="AG19" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -3057,8 +3104,11 @@
       <c r="AF20" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="AG20" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -3120,21 +3170,22 @@
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="4" t="s">
-        <v>213</v>
+        <v>151</v>
       </c>
       <c r="AD21" s="4" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3231,8 +3282,11 @@
       <c r="AF22" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="AG22" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -3286,15 +3340,16 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="4" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3361,8 +3416,11 @@
       <c r="AF24" s="3">
         <v>63</v>
       </c>
+      <c r="AG24" s="3">
+        <v>63</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3425,8 +3483,11 @@
       <c r="AF25" s="3">
         <v>78</v>
       </c>
+      <c r="AG25" s="3">
+        <v>78</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3473,10 +3534,13 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="4" t="s">
-        <v>218</v>
+        <v>156</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -3525,8 +3589,11 @@
       <c r="AF27" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="AG27" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
@@ -3623,8 +3690,11 @@
       <c r="AF28" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="AG28" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>44</v>
       </c>
@@ -3717,8 +3787,11 @@
       <c r="AF29" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="AG29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -3811,8 +3884,11 @@
       <c r="AF30" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="AG30" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -3877,8 +3953,9 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -3933,6 +4010,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3944,7 +4022,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3986,7 +4066,7 @@
         <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>48</v>
@@ -4034,7 +4114,7 @@
         <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="3" t="s">
         <v>48</v>
@@ -4060,100 +4140,100 @@
         <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -4979,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5040,7 +5120,7 @@
         <v>48</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>48</v>
@@ -5085,7 +5165,7 @@
         <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AF1" s="3" t="s">
         <v>48</v>
@@ -5099,100 +5179,100 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -5200,100 +5280,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -5909,209 +5989,209 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -6220,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6246,7 +6326,7 @@
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>48</v>
@@ -6270,13 +6350,13 @@
         <v>48</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>48</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>48</v>
@@ -6318,25 +6398,25 @@
         <v>48</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -6344,100 +6424,100 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>288</v>
+        <v>226</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -6445,100 +6525,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -7154,209 +7234,209 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -807,97 +807,97 @@
     <t>UpdateVM__Update_NewYork_VMWare_Dev84</t>
   </si>
   <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_VMWare_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_63</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_NewYork_AWS_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_DEV84</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_Azure_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_PRD32</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_PRD30</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_DEV83</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_DEV13</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_DEV91</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_DEV59</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_DEV63</t>
-  </si>
-  <si>
-    <t>UpdateVM__Delete_Dallas_OpenStack_DEV84</t>
+    <t>UpdateVM_Delete_NewYork_VMWare_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_VMWare_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_NewYork_AWS_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_DEV84</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_Azure_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_PRD32</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_PRD30</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_DEV83</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_DEV13</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_DEV91</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_DEV59</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_DEV63</t>
+  </si>
+  <si>
+    <t>UpdateVM_Delete_Dallas_OpenStack_DEV84</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH6" sqref="AH6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,97 +1312,97 @@
         <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -4022,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4039,100 +4039,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -5059,8 +5059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5117,61 +5117,61 @@
         <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -6300,8 +6300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,100 +6323,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>195</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesh\workspace\CNet_Global_Updated\Testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -18,11 +13,46 @@
     <sheet name="RemoveUser" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="AD1:AG25"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>maneesh nama</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>maneesh nama:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="291">
   <si>
     <t>Project</t>
   </si>
@@ -166,9 +196,6 @@
   </si>
   <si>
     <t>InstandEnablSNMP</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>4545</t>
@@ -904,7 +931,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -924,6 +951,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1286,9 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH6" sqref="AH6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1309,201 +1347,201 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -1838,28 +1876,28 @@
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>20</v>
@@ -1886,33 +1924,33 @@
         <v>20</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1939,33 +1977,33 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1992,28 +2030,28 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -2045,28 +2083,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>21</v>
@@ -2093,28 +2131,28 @@
         <v>21</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -2128,22 +2166,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -2152,22 +2190,22 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>6</v>
@@ -2176,37 +2214,37 @@
         <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>11</v>
@@ -2215,7 +2253,7 @@
         <v>6</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -2226,10 +2264,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>8</v>
@@ -2238,85 +2276,85 @@
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="R11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="T11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="V11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AA11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AB11" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD11" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="AE11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AF11" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="AG11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -2351,19 +2389,19 @@
         <v>10</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>10</v>
@@ -2378,13 +2416,13 @@
         <v>10</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>10</v>
@@ -2411,13 +2449,13 @@
         <v>10</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -2428,13 +2466,13 @@
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>34</v>
@@ -2443,10 +2481,10 @@
         <v>29</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>29</v>
@@ -2462,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>34</v>
@@ -2474,7 +2512,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>34</v>
@@ -2486,7 +2524,7 @@
         <v>29</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AB13" s="3" t="s">
         <v>34</v>
@@ -2512,71 +2550,71 @@
         <v>35</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AB14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AC14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -2593,71 +2631,71 @@
         <v>36</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="J15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="X15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Y15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AB15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AC15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -2674,71 +2712,71 @@
         <v>37</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Y16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="Y16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AB16" s="3" t="s">
+      <c r="AC16" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -2854,11 +2892,11 @@
         <v>32</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2920,16 +2958,16 @@
         <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>38</v>
@@ -2941,10 +2979,10 @@
         <v>38</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>38</v>
@@ -2953,13 +2991,13 @@
         <v>33</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S19" s="3" t="s">
         <v>33</v>
@@ -2968,13 +3006,13 @@
         <v>38</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W19" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="X19" s="3" t="s">
         <v>33</v>
@@ -2998,13 +3036,13 @@
         <v>33</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -3018,13 +3056,13 @@
         <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>25</v>
@@ -3033,7 +3071,7 @@
         <v>25</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>25</v>
@@ -3042,13 +3080,13 @@
         <v>25</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>25</v>
@@ -3063,16 +3101,16 @@
         <v>25</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>25</v>
@@ -3084,13 +3122,13 @@
         <v>25</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC20" s="3" t="s">
         <v>25</v>
@@ -3102,10 +3140,10 @@
         <v>25</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -3113,10 +3151,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="4">
@@ -3170,17 +3208,17 @@
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD21" s="4" t="s">
+      <c r="AE21" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="AF21" s="4"/>
       <c r="AG21" s="4"/>
@@ -3196,7 +3234,7 @@
         <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>39</v>
@@ -3211,7 +3249,7 @@
         <v>39</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>28</v>
@@ -3220,7 +3258,7 @@
         <v>39</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>28</v>
@@ -3244,10 +3282,10 @@
         <v>39</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>28</v>
@@ -3268,7 +3306,7 @@
         <v>39</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>28</v>
@@ -3280,10 +3318,10 @@
         <v>39</v>
       </c>
       <c r="AF22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -3291,10 +3329,10 @@
         <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="4">
@@ -3340,10 +3378,10 @@
       <c r="AA23" s="4"/>
       <c r="AB23" s="5"/>
       <c r="AC23" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD23" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="AE23" s="5"/>
       <c r="AF23" s="4"/>
@@ -3351,7 +3389,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3422,7 +3460,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
@@ -3489,7 +3527,7 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3534,15 +3572,15 @@
       <c r="AD26" s="4"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG26" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3587,10 +3625,10 @@
       <c r="AD27" s="4"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -3637,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>10</v>
@@ -3667,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z28" s="4" t="s">
         <v>10</v>
@@ -3708,10 +3746,10 @@
         <v>10</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -3720,13 +3758,13 @@
         <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>10</v>
@@ -3735,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3" t="s">
@@ -3760,10 +3798,10 @@
         <v>10</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3" t="s">
@@ -3808,16 +3846,16 @@
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>10</v>
@@ -3829,14 +3867,14 @@
         <v>10</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>10</v>
@@ -3851,23 +3889,23 @@
         <v>10</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>10</v>
@@ -3876,16 +3914,16 @@
         <v>10</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -3899,7 +3937,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
@@ -3917,20 +3955,20 @@
         <v>10</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>10</v>
@@ -4022,8 +4060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4039,201 +4077,201 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -4241,100 +4279,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -4544,28 +4582,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>20</v>
@@ -4592,28 +4630,28 @@
         <v>20</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>4</v>
@@ -4642,132 +4680,132 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="X7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="AA7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="X7" s="3" t="s">
+      <c r="AB7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="AC7" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="Z7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="AD7" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -4796,31 +4834,31 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4852,28 +4890,28 @@
         <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>21</v>
@@ -4900,28 +4938,28 @@
         <v>21</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>5</v>
@@ -4959,22 +4997,22 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
@@ -4983,22 +5021,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>6</v>
@@ -5007,37 +5045,37 @@
         <v>11</v>
       </c>
       <c r="T11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="W11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="Y11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AC11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="3" t="s">
         <v>11</v>
@@ -5046,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5059,9 +5097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5078,201 +5114,201 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -5280,100 +5316,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -5607,28 +5643,28 @@
         <v>4</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>20</v>
@@ -5655,33 +5691,33 @@
         <v>20</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5708,33 +5744,33 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5761,28 +5797,28 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -5814,28 +5850,28 @@
         <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>21</v>
@@ -5862,28 +5898,28 @@
         <v>21</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -5897,22 +5933,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -5921,22 +5957,22 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>6</v>
@@ -5945,37 +5981,37 @@
         <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>11</v>
@@ -5984,214 +6020,214 @@
         <v>6</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -6297,11 +6333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6323,201 +6359,201 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -6525,100 +6561,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -6828,28 +6864,28 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>20</v>
@@ -6876,28 +6912,28 @@
         <v>20</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>4</v>
@@ -6926,31 +6962,31 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -6979,31 +7015,31 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -7035,28 +7071,28 @@
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>21</v>
@@ -7083,28 +7119,28 @@
         <v>21</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>5</v>
@@ -7142,22 +7178,22 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -7166,22 +7202,22 @@
         <v>11</v>
       </c>
       <c r="L10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>6</v>
@@ -7190,37 +7226,37 @@
         <v>11</v>
       </c>
       <c r="T10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="W10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="Y10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="AC10" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>11</v>
@@ -7229,214 +7265,214 @@
         <v>6</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -7537,5 +7573,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="RemoveUser" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="AD1:AG25"/>
+  <oleSize ref="A1:D25"/>
 </workbook>
 </file>
 
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="292">
   <si>
     <t>Project</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>UpdateVM_Delete_Dallas_OpenStack_DEV84</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6336,7 +6339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6362,7 +6365,7 @@
         <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>194</v>

--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maneesh\workspace\CNet_Global_Updated\Testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -12,47 +17,12 @@
     <sheet name="AddUser" sheetId="4" r:id="rId3"/>
     <sheet name="RemoveUser" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:D25"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>maneesh nama</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>maneesh nama:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="299">
   <si>
     <t>Project</t>
   </si>
@@ -928,13 +898,34 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>EnvironmentData</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>DEV</t>
+  </si>
+  <si>
+    <t>STAGE</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>PROD-LNX-APACHE-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,19 +945,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1327,22 +1305,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="39.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="35" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="23" width="37.88671875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="33" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
@@ -1350,100 +1327,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -1953,60 +1930,108 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="Z7" s="3" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2033,591 +2058,563 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
       <c r="Z9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="L13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="P13" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="W13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="AB14" s="3" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="AD14" s="3" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
@@ -2625,80 +2622,80 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
@@ -2706,80 +2703,80 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="AB16" s="3" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AD16" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
@@ -2787,80 +2784,80 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="4">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4">
-        <v>40</v>
-      </c>
-      <c r="D17" s="4">
-        <v>50</v>
-      </c>
-      <c r="E17" s="4">
-        <v>60</v>
-      </c>
-      <c r="F17" s="4">
-        <v>70</v>
-      </c>
-      <c r="G17" s="4">
-        <v>89</v>
-      </c>
-      <c r="H17" s="4">
-        <v>21</v>
-      </c>
-      <c r="I17" s="4">
-        <v>54</v>
-      </c>
-      <c r="J17" s="4">
-        <v>33</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4">
-        <v>21</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4">
-        <v>51</v>
-      </c>
-      <c r="Q17" s="4">
-        <v>12</v>
-      </c>
-      <c r="R17" s="4">
-        <v>64</v>
-      </c>
-      <c r="S17" s="4">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4">
-        <v>65</v>
-      </c>
-      <c r="X17" s="4">
-        <v>34</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>29</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>56</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>47</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>89</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>87</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>85</v>
+      <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
@@ -2868,739 +2865,767 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
+      <c r="D18" s="4">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4">
+        <v>60</v>
+      </c>
+      <c r="F18" s="4">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4">
+        <v>89</v>
+      </c>
+      <c r="H18" s="4">
+        <v>21</v>
+      </c>
+      <c r="I18" s="4">
+        <v>54</v>
+      </c>
+      <c r="J18" s="4">
+        <v>33</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
+        <v>21</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>12</v>
+      </c>
+      <c r="R18" s="4">
+        <v>64</v>
+      </c>
+      <c r="S18" s="4">
+        <v>23</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4">
+        <v>65</v>
+      </c>
+      <c r="X18" s="4">
+        <v>34</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>29</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>56</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>47</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>89</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>87</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>85</v>
+      </c>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K19" s="3"/>
       <c r="L19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
       <c r="W19" s="3" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>133</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AB20" s="3" t="s">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AD20" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AE20" s="3" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="4">
-        <v>4569</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="5">
-        <v>3645</v>
-      </c>
-      <c r="H21" s="4">
-        <v>7896</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5">
-        <v>123455</v>
-      </c>
-      <c r="K21" s="4">
-        <v>987654</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="5">
-        <v>1098</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4">
-        <v>26871</v>
-      </c>
-      <c r="P21" s="5">
-        <v>987</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>9753</v>
-      </c>
-      <c r="R21" s="4">
-        <v>4556</v>
-      </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4">
-        <v>6423</v>
-      </c>
-      <c r="V21" s="5"/>
-      <c r="W21" s="4">
-        <v>8564</v>
-      </c>
-      <c r="X21" s="4">
-        <v>7965</v>
-      </c>
-      <c r="Y21" s="5">
-        <v>2147</v>
-      </c>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AE21" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG21" s="3" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF22" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG22" s="3" t="s">
-        <v>137</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4">
+        <v>4569</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5">
+        <v>3645</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7896</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5">
+        <v>123455</v>
+      </c>
+      <c r="K22" s="4">
+        <v>987654</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="5">
+        <v>1098</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4">
+        <v>26871</v>
+      </c>
+      <c r="P22" s="5">
+        <v>987</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>9753</v>
+      </c>
+      <c r="R22" s="4">
+        <v>4556</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4">
+        <v>6423</v>
+      </c>
+      <c r="V22" s="5"/>
+      <c r="W22" s="4">
+        <v>8564</v>
+      </c>
+      <c r="X22" s="4">
+        <v>7965</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>2147</v>
+      </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4">
-        <v>65</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5">
-        <v>14</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="5">
-        <v>23</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4">
-        <v>41</v>
-      </c>
-      <c r="P23" s="5">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4">
-        <v>78</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="5">
-        <v>78</v>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4">
-        <v>123</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>987</v>
-      </c>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG23" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3">
-        <v>89</v>
-      </c>
-      <c r="H24" s="3">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4">
+        <v>65</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5">
+        <v>14</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="5">
+        <v>23</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4">
+        <v>41</v>
+      </c>
+      <c r="P24" s="5">
+        <v>65</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
         <v>78</v>
       </c>
-      <c r="I24" s="3">
-        <v>67</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3">
-        <v>23</v>
-      </c>
-      <c r="L24" s="3">
-        <v>31</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3">
-        <v>51</v>
-      </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3">
+      <c r="S24" s="5"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="5">
+        <v>78</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4">
+        <v>123</v>
+      </c>
+      <c r="Y24" s="5">
         <v>987</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3">
-        <v>34</v>
-      </c>
-      <c r="T24" s="3">
-        <v>51</v>
-      </c>
-      <c r="U24" s="3">
-        <v>95</v>
-      </c>
-      <c r="V24" s="3">
-        <v>76</v>
-      </c>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3">
-        <v>87</v>
-      </c>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3">
-        <v>86</v>
-      </c>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3">
-        <v>63</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>63</v>
-      </c>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>89</v>
+      </c>
+      <c r="H25" s="3">
+        <v>78</v>
+      </c>
       <c r="I25" s="3">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3">
-        <v>411</v>
+        <v>23</v>
       </c>
       <c r="L25" s="3">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3">
-        <v>522</v>
+        <v>51</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3">
-        <v>345</v>
+        <v>987</v>
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T25" s="3">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="U25" s="3">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="V25" s="3">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="AA25" s="3"/>
       <c r="AB25" s="3">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AG25" s="3">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="3">
-        <v>31</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>41</v>
+      </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
-        <v>69</v>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>64</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4">
-        <v>51</v>
+      <c r="K26" s="3">
+        <v>411</v>
+      </c>
+      <c r="L26" s="3">
+        <v>41</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
+      <c r="N26" s="3">
+        <v>522</v>
+      </c>
+      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="4">
-        <v>41</v>
-      </c>
-      <c r="U26" s="4">
+      <c r="Q26" s="3">
+        <v>345</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3">
         <v>32</v>
       </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
+      <c r="T26" s="3">
+        <v>78</v>
+      </c>
+      <c r="U26" s="3">
+        <v>23</v>
+      </c>
+      <c r="V26" s="3">
+        <v>68</v>
+      </c>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
+      <c r="Z26" s="3">
+        <v>54</v>
+      </c>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="3">
-        <v>64</v>
-      </c>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
-      <c r="AF26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG26" s="4" t="s">
-        <v>155</v>
+      <c r="AF26" s="3">
+        <v>78</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="4"/>
@@ -3610,10 +3635,10 @@
       <c r="R27" s="4"/>
       <c r="S27" s="3"/>
       <c r="T27" s="4">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="U27" s="4">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="V27" s="3"/>
       <c r="W27" s="4"/>
@@ -3622,219 +3647,175 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="3">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AG27" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <v>87</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
+        <v>61</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="4">
+        <v>57</v>
+      </c>
+      <c r="U28" s="4">
+        <v>98</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="3">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="3"/>
       <c r="AF28" s="4" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="AG28" s="4" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="P29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA29" s="3" t="s">
+      <c r="Z29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD29" s="3" t="s">
+      <c r="AC29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="AE29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AF29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG29" s="3" t="s">
+      <c r="AF29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -3846,13 +3827,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>10</v>
@@ -3864,20 +3845,20 @@
         <v>10</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>71</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>10</v>
@@ -3892,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="V30" s="3" t="s">
         <v>10</v>
@@ -3905,10 +3886,10 @@
       </c>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="AB30" s="3" t="s">
         <v>10</v>
@@ -3917,21 +3898,21 @@
         <v>10</v>
       </c>
       <c r="AD30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="AF30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="AG30" s="3" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -3940,17 +3921,23 @@
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="H31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="J31" s="3" t="s">
         <v>10</v>
       </c>
@@ -3958,100 +3945,191 @@
         <v>10</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="Q31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="V31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
+      <c r="Z31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="AB31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="AC31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
+      <c r="AD31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG31" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="3">
         <v>45</v>
       </c>
-      <c r="C32" s="3">
-        <v>98</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
-        <v>698</v>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>89</v>
+      <c r="H32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I32" s="3"/>
-      <c r="J32" s="3">
-        <v>344</v>
-      </c>
-      <c r="K32" s="3">
-        <v>478</v>
-      </c>
-      <c r="L32" s="3"/>
+      <c r="J32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3">
-        <v>652</v>
+      <c r="Q32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U32" s="3"/>
-      <c r="V32" s="3">
-        <v>987</v>
+      <c r="V32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
-      <c r="AB32" s="3">
-        <v>456</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>5689</v>
+      <c r="AB32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3">
+        <v>98</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>698</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3">
+        <v>89</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3">
+        <v>344</v>
+      </c>
+      <c r="K33" s="3">
+        <v>478</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3">
+        <v>652</v>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3">
+        <v>987</v>
+      </c>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3">
+        <v>456</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>5689</v>
+      </c>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4061,10 +4139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4075,108 +4153,111 @@
     <col min="26" max="33" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -4277,7 +4358,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -4378,7 +4459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4479,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -4580,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -4681,187 +4762,235 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Y7" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="Z7" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AA7" s="3" t="s">
+      <c r="AA8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AB8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AC8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AD8" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG8" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4888,205 +5017,258 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R10" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Y10" s="3" t="s">
+      <c r="Y11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Z10" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA10" s="3" t="s">
+      <c r="AA11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB10" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AC11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="3" t="s">
+      <c r="AE11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AF10" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AG11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="T12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="U12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Y12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="Z12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5098,9 +5280,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5117,100 +5301,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -5720,60 +5904,108 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>296</v>
+      </c>
       <c r="Z7" s="3" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5800,532 +6032,585 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
       <c r="Z9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6336,12 +6621,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6351,7 +6634,7 @@
     <col min="18" max="18" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="40.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="23" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="28" width="44" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="33" width="44" bestFit="1" customWidth="1"/>
@@ -6362,100 +6645,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>291</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -6965,84 +7248,132 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>139</v>
+        <v>292</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -7071,511 +7402,563 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testdata/UpdateVirtualMachine.xlsx
+++ b/Testdata/UpdateVirtualMachine.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17436" windowHeight="7788"/>
   </bookViews>
   <sheets>
     <sheet name="Update" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="303">
   <si>
     <t>Project</t>
   </si>
@@ -498,18 +498,9 @@
     <t>ServerAccountDetails</t>
   </si>
   <si>
-    <t>SampleTesting</t>
-  </si>
-  <si>
     <t>Add Users</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Maneesh Nama</t>
-  </si>
-  <si>
     <t>UpdateVM_AddUser_Dallas_OpenStack_DEV63</t>
   </si>
   <si>
@@ -919,6 +910,27 @@
   </si>
   <si>
     <t>PROD-LNX-APACHE-01</t>
+  </si>
+  <si>
+    <t>PROD-LNX-APACHE-62</t>
+  </si>
+  <si>
+    <t>approval_admin</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>bharath</t>
+  </si>
+  <si>
+    <t>PRJ0010221</t>
+  </si>
+  <si>
+    <t>MonitorType</t>
+  </si>
+  <si>
+    <t>Agent</t>
   </si>
 </sst>
 </file>
@@ -1305,9 +1317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1327,100 +1341,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -1428,100 +1442,100 @@
         <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -1630,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>3</v>
@@ -1930,103 +1944,103 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="Q7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="V7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AA7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AF7" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -2241,7 +2255,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -4130,6 +4144,107 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG34" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4141,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4158,103 +4273,103 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -4262,100 +4377,100 @@
         <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
@@ -4764,103 +4879,103 @@
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="Q7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="V7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AA7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AF7" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
@@ -5179,7 +5294,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>58</v>
@@ -5282,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5301,100 +5416,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -5402,100 +5517,100 @@
         <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -5503,100 +5618,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -5904,103 +6019,103 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="Q7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="V7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AA7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AF7" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -6221,7 +6336,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>59</v>
@@ -6313,103 +6428,103 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -6417,100 +6532,100 @@
         <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -6624,11 +6739,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="45.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="17" width="41.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="39.5546875" bestFit="1" customWidth="1"/>
@@ -6645,100 +6762,100 @@
         <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AE1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG1" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -6746,100 +6863,100 @@
         <v>143</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -6847,100 +6964,100 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -6948,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -7248,103 +7365,103 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="G7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="Q7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="T7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="V7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AA7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD7" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AB7" s="3" t="s">
+      <c r="AE7" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AC7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>297</v>
-      </c>
       <c r="AF7" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -7559,7 +7676,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -7657,103 +7774,103 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>161</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -7761,100 +7878,100 @@
         <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>158</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
